--- a/data/long_bre/P50-Urba-long_bre.xlsx
+++ b/data/long_bre/P50-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,48%</t>
+          <t>-9,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,47%</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,06%</t>
+          <t>-10,26%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-7,52%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-2,81%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-28,64%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-7,6%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 3,09</t>
+          <t>-9,05; 3,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 4,56</t>
+          <t>-9,52; 4,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 4,89</t>
+          <t>-6,49; 5,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 11,52</t>
+          <t>-24,17; -1,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 20,83</t>
+          <t>-9,77; 4,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 22,5</t>
+          <t>-26,27; 12,37</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-31,13; 18,93</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-22,12; 23,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-51,36; -5,73</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-31,36; 19,42</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>8,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,46%</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>9,9%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,52%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22,57%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,72%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 11,99</t>
+          <t>-2,38; 11,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 4,15</t>
+          <t>-9,46; 4,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 8,95</t>
+          <t>-3,98; 9,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 29,0</t>
+          <t>0,06; 17,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 9,34</t>
+          <t>-5,58; 10,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 19,74</t>
+          <t>-4,69; 28,71</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-17,5; 10,77</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-7,69; 21,44</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 53,76</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-12,49; 27,76</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,13%</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,22%</t>
+          <t>-6,02%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17,64%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-6,83%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,68%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,89%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 3,94</t>
+          <t>-8,66; 3,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 10,6</t>
+          <t>-1,59; 10,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 4,44</t>
+          <t>-9,46; 4,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 20,45</t>
+          <t>-6,23; 9,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 51,41</t>
+          <t>-7,88; 7,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 21,22</t>
+          <t>-30,32; 19,84</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 52,24</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-29,74; 19,01</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-18,8; 39,47</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-21,18; 26,45</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,01%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,55%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 5,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 5,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 8,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,13; 18,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,27; 24,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 33,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,01%</t>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-7,15%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-3,9%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12,51%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 9,39</t>
+          <t>-7,2; 8,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 12,65</t>
+          <t>-8,86; 4,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 3,54</t>
+          <t>-5,73; 7,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 27,0</t>
+          <t>-10,03; 6,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 34,94</t>
+          <t>-9,4; 16,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 7,71</t>
+          <t>-18,53; 28,29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-32,14; 21,74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-17,24; 29,85</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-30,83; 29,8</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-28,54; 82,72</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,99%</t>
+          <t>9,3</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>-3,3%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-7,54%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-14,52%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>29,12%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 9,01</t>
+          <t>-9,51; 6,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 6,08</t>
+          <t>-6,44; 10,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 8,82</t>
+          <t>-11,36; 4,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 47,54</t>
+          <t>-15,48; 1,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 20,45</t>
+          <t>-4,61; 24,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 43,45</t>
+          <t>-19,68; 16,26</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-13,55; 27,6</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-22,16; 9,75</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-31,9; 4,08</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-11,73; 97,3</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,67</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-15,08%</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>-12,68</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,45%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>10,73%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>25,66%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-30,87%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 9,16</t>
+          <t>-6,32; 6,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 20,27</t>
+          <t>-8,32; 8,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 20,86</t>
+          <t>-3,69; 8,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-52,77; 37,58</t>
+          <t>-0,24; 16,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 134,47</t>
+          <t>-30,97; 1,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 135,42</t>
+          <t>-23,01; 34,59</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-21,8; 28,88</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-14,39; 43,95</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 62,04</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-58,12; 7,75</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-10,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-24,6%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 20,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 5,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 3,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 60,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,79; 19,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 7,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>-5,93</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>-8,62</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>-16,9%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>44,77%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>43,25%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-24,52%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 14,05</t>
+          <t>-25,13; 7,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 18,41</t>
+          <t>-4,93; 20,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 12,9</t>
+          <t>-3,73; 20,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 98,54</t>
+          <t>-33,82; 10,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-31,89; 74,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 73,46</t>
+          <t>-53,19; 29,92</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-14,5; 159,39</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-13,05; 130,83</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-66,67; 43,98</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-9,27</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-10,59</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-8,48%</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-2,26%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-22,15%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-19,55%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-4,61%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 1,97</t>
+          <t>-13,17; 18,2</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 3,35</t>
+          <t>-24,59; 5,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 5,1</t>
+          <t>-23,58; 3,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 6,65</t>
+          <t>-22,4; 17,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 15,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 21,37</t>
+          <t>-25,11; 52,33</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-48,38; 15,69</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-39,98; 6,92</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-41,68; 62,01</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>10,49</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,37%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-3,1%</t>
+          <t>23,65%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-0,25%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>43,26%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 7,93</t>
+          <t>-7,72; 15,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 4,08</t>
+          <t>-19,32; 15,26</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 2,94</t>
+          <t>-12,63; 14,02</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 19,17</t>
+          <t>-7,12; 26,75</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 9,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 6,41</t>
+          <t>-28,73; 123,79</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-40,49; 54,92</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-36,94; 78,78</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-22,03; 173,86</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,539 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 4,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 6,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 4,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 21,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 24,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 21,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-1,85</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-6,17</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-5,74%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-2,06%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>4,11%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-19,74%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-3,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 2,8</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 4,08</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 4,82</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-13,49; -0,52</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-7,35; 5,21</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-18,61; 9,88</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-19,91; 18,51</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-9,74; 19,87</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-35,69; -1,7</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-23,88; 22,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>4,1</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>4,23%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-2,87%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-2,81%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>10,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 6,72</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-6,28; 3,82</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 2,9</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 7,92</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 10,86</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-6,64; 15,95</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-12,88; 9,09</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-11,73; 6,08</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-8,84; 21,42</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-6,69; 31,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-3,19</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,19%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>16,87%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>-9,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 3,9</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 6,49</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 4,05</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 10,26</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-11,18; 3,51</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-18,5; 18,92</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-12,31; 24,56</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-15,58; 18,48</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 42,16</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-27,99; 11,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P50-Urba-long_bre.xlsx
+++ b/data/long_bre/P50-Urba-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1434,7 +1434,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1536,7 +1536,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1756,7 +1756,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1870,7 +1870,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
